--- a/biology/Botanique/Opuntia_pailana/Opuntia_pailana.xlsx
+++ b/biology/Botanique/Opuntia_pailana/Opuntia_pailana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Opuntia pailana est une espèce du genre Opuntia de la famille des Cactaceae. Elle porte le nom de la sierra de la Paila dans l'État de Coahuila (Mexique) où elle a été découverte.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La première description a été publiée par Wilhelm Weingart en 1929 dans l'ouvrage Monatsschrift der Deutschen Kakteen-Gesellschaft. Band 1, Nummer 9, 1929, S. 167–169.
 Comme la plupart des espèces du genre Opuntia, Opuntia pailana se présente comme une plante arbustive avec des cladodes (articles en forme de raquette). Elle peut atteindre une hauteur d'un mètre.
